--- a/ja/releases/nablarch5u23-releasenote.xlsx
+++ b/ja/releases/nablarch5u23-releasenote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1389" documentId="14_{92B68567-62ED-48C3-80C6-5FE724631467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49308430-7120-4853-A535-02191E7F464A}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{4887760B-915A-430F-97AF-1EB38BFE5B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1001654-5C7A-4BB9-B72D-A733A02E1A6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
     <sheet name="5u23" sheetId="2" r:id="rId2"/>
     <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
     <sheet name="DBアクセス失敗時の例外ハンドリング" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="10" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u23'!$A$5:$N$5</definedName>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
   <si>
     <t>開発ガイド</t>
   </si>
@@ -1353,492 +1352,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">        try {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (RuntimeException e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (Error e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t>public T doTransaction() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    transactionManager.beginTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Throwable throwable = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    try {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        T result = execute(DbConnectionContext.getConnection(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                transactionManager.getDbTransactionName()));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 正常終了時はコミット処理を行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        transactionManager.commitTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return result;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } catch (RuntimeException e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            transactionManager.rollbackTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (RuntimeException exception) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            writeWarnLog(e);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throwable = exception;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw exception;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (Error error) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throwable = error;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw error;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        throwable = e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        throw e;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } catch (Error e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    } finally {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            transactionManager.endTransaction();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            writeWarnLog(throwable);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>（変更前）</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>（変更後）</t>
-    <rPh sb="1" eb="4">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>コミット処理</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ロールバック処理</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>送出なし</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>nablarch.common.handler.DbConnectionManagementHandler (nablarch-common-jdbc)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>nablarch.core.db.transaction.SimpleDbTransactionExecutor (nablarch-core-jdbc)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>public Object handle(Object inputData, ExecutionContext ctx) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    before();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return ctx.handleNext(inputData);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            after();</t>
-  </si>
-  <si>
-    <t>●DBコネクションの終了処理</t>
-    <rPh sb="10" eb="14">
-      <t>シュウリョウショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>●データベース接続管理ハンドラ</t>
-    <rPh sb="7" eb="11">
-      <t>セツゾクカンリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>●個別トランザクションを使用したDBアクセス</t>
-    <rPh sb="1" eb="3">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>public void terminate() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (isClose) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        rollback();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        closeStatements();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        statements = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        cacheStatements = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        isClose = true;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            closeConnection();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        } catch (SQLException e) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            LOGGER.logWarn("failed to terminate.", e);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            throw new DbAccessException("failed to terminate.", e);</t>
-  </si>
-  <si>
-    <t>nablarch.core.db.connection.BasicDbConnection (nablarch-core-jdbc)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理</t>
-    <rPh sb="9" eb="11">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対象のクラスと、処理の変更点を以下に示します。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>finally句のafter()では、BasicDbConnectionの「DBコネクションの終了処理」が実行されます。</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>シュウリョウショリ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            transactionManager.endTransaction();</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>finally句のtransactionManager.endTransaction()では、BasicDbConnectionの「DBコネクションの終了処理」が実行されます。</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="75" eb="79">
-      <t>シュウリョウショリ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライ不可な例外</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライ可能な例外</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>変更後は、DBコネクションクローズに失敗した場合は単に警告ログが出力されます。try句で例外が発生している場合はその例外が送出されます。</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>finally句でDBコネクションクローズに失敗した場合、変更前はtry句で例外が発生しているかどうかに関わらずDbAccessException（リトライ不可な例外)が送出されていました。</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理が失敗した場合、変更前はDBコネクションの終了処理で発生した例外を送出していました。</t>
-    <rPh sb="14" eb="16">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理が失敗した場合、変更前はDBコネクションの終了処理で発生した例外を送出していました。</t>
-    <rPh sb="9" eb="11">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>変更後は、DBコネクションの終了処理で発生した例外は警告ログとして出力されます。try句(コミット処理)またはcatch句(ロールバック処理)で例外が発生している場合はその例外が送出されます。</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ソウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対象のクラスと、処理の変更点を以下に示します。</t>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>データベースアクセスのエラーハンドリングについて、以下2点の修正を実施しました。
-1. これまで、コネクション取得・コミットで処理に失敗した場合、必ずリトライできない例外が送出されていました。今回の修正で、コネクション取得・コミットで処理に失敗した場合、可能な場合はリトライ可能な例外が送出されるようになります。
-2. これまで、トランザクションに失敗してリトライ可能な例外が送出されていても、後続処理でリトライできない例外に上書きされる場合がありました。今回の修正で、リトライ可能な例外がそのまま送出されるようになります。詳しいパターンは別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
-    <rPh sb="137" eb="139">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u23に書き換える</t>
     <rPh sb="36" eb="38">
       <t>シテイ</t>
@@ -1852,22 +1365,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>以下の処理の例外ハンドリングを変更しました。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/standalone/retry_handler.html</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1877,14 +1374,6 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/libraries/validation/bean_validation.html#bean-validation-use-groups</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライハンドラを使用しているアプリケーション、またはRetryableインタフェースに対して何らかの処理を実装しているアプリケーションに影響があります。
-バージョンアップ後は、トランザクションに失敗した時にこれまでリトライできない例外として送出されていたものが、リトライ可能な例外として送出されることが多くなります。詳細は別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
-    <rPh sb="187" eb="188">
-      <t>ラン</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -2095,61 +1584,6 @@
     </rPh>
     <rPh sb="281" eb="283">
       <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>■DBアクセス失敗時の例外ハンドリングの変更に伴う、例外発生パターンの変更点</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>送出される例外（～5u22）</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>送出される例外（5u23～）</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>以降、処理の変更点および変更に伴う例外発生パターンの変更点の詳細を記載します。</t>
-    <rPh sb="0" eb="2">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トモナ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>レイガイハッセイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -2280,352 +1714,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>リトライ可能例外</t>
-    <rPh sb="4" eb="6">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>リトライ不可例外</t>
-    <rPh sb="4" eb="6">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>コネクション終了時</t>
-    <rPh sb="6" eb="9">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>業務処理</t>
-    <rPh sb="0" eb="4">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>データベース接続管理ハンドラ、個別トランザクションを使用したDBアクセスでは、それぞれ以下のような業務処理から送出される例外のハンドリングを変更しました。</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="49" eb="53">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>データベース接続管理ハンドラ：　後続のハンドラにて実行される処理（業務処理）が送出する例外</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ソウシュ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>業務処理とDBコネクションの終了処理は、発生するDBの例外に応じてリトライ可能な例外とリトライ不可な例外を出し分けます。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>DBコネクションの終了処理では、例外が発生しても送出することなくログ出力のみ行い処理を続行するよう変更しました。</t>
-    <rPh sb="9" eb="11">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ソウシュツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>それぞれの処理で発生したリトライ可否と最終的にリトライハンドラでハンドリングされる例外のリトライ可否の組み合わせは5u22までと5u23からで以下の通り変更されます。</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>例外発生なし</t>
-    <rPh sb="0" eb="2">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>～5u22 最終的にリトライハンドラでハンドリングされる例外</t>
-    <rPh sb="6" eb="9">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>5u23～ 最終的にリトライハンドラでハンドリングされる例外</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>5u23以降は業務処理で発生した例外のリトライ可否が優先され、コネクション終了時に発生した例外は無視されます。</t>
-    <rPh sb="4" eb="6">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ムシ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>変更後は、DBコネクションの終了処理で発生した例外は警告ログとして出力されます。try句(業務処理)で例外が発生している場合はその例外が送出されます。</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>個別トランザクションを使用したDBアクセス：対象となるDBアクセスのコミット・ロールバック処理（業務処理）が送出する例外</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="54" eb="58">
-      <t>ソウシュ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>以下、変更前後の例外発生パターンを示します。（コミット処理とロールバック処理はいずれも業務処理として扱います。より後のタイミングとなるロールバック処理で発生した例外がコミット処理の例外より優先されます。）</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ユウセン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ブランクプロジェクトには、疎通確認用とエラーページサンプルとしてJSPファイルが含まれます。このJSPファイルの直接起動を防ぐため、またブランクプロジェクトを参考にしてWEB-INF外にJSPファイルを配置してしまうことを防ぐため、JSPファイルをWEB-INF配下に移動しました。</t>
     <rPh sb="13" eb="15">
       <t>ソツウ</t>
@@ -2656,6 +1744,776 @@
     </rPh>
     <rPh sb="134" eb="136">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>■DBアクセス失敗時の例外ハンドリングの変更点</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>データベースアクセスを行うアプリケーションに影響があります。ただし基本的に対応の必要はありません。
+詳細は別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・リトライハンドラを設定しているバッチアプリケーションにおいて、ロールバック時に例外が発生した場合とコネクションクローズ時に例外が発生した場合で挙動が異なり</t>
+    <rPh sb="38" eb="39">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　ロールバック時に例外が発生した場合はリトライされるが、コネクションクローズ時に例外が発生した場合はリトライされない。</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>◆変更点</t>
+    <rPh sb="1" eb="4">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. コネクションのクローズ時に例外が発生した場合、例外をスローせず、ログ出力に留める</t>
+    <rPh sb="14" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>◆改修を行った経緯</t>
+    <rPh sb="1" eb="3">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>利用者から以下の事象について問い合わせがありました。</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1. DBアクセスで例外が発生した場合、原因がDB接続の異常であった場合は必ずリトライ可能な例外をスローする</t>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>◆既存アプリケーションへの影響</t>
+    <rPh sb="1" eb="3">
+      <t>キソン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ただし、1点目では発生する例外の種類が、2点目では例外がスローされなくなるという変更が発生していますので、以下の場合には対応が必要となります。</t>
+    <rPh sb="5" eb="7">
+      <t>テンメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テンメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベース接続管理ハンドラーデータベースの接続先を設定する</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベースアクセス(JDBCラッパー)-データベースに対する接続設定</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベースアクセス(JDBCラッパー)- データベースアクセス時の例外クラスを切り替える</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ConnectionFactory</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・DbAccessExceptionFactory</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・SimpleDbTransactionExecutor</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・DbConnectionManagementHandler</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベース接続管理ハンドラ</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データベースアクセス(JDBCラッパー)-現在のトランザクションとは異なるトランザクションでSQLを実行する</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>なお本改修はNablarchの提供する以下の標準クラスを使用している場合に影響があります。これらのクラスを独自実装に差し替えている場合は影響はありません。</t>
+    <rPh sb="2" eb="5">
+      <t>ホンカイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>各クラスの詳細はリンク先の解説書をご参照ください。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　それ以外の処理(コネクションの初期化処理やコミット処理)では原因に関わらずリトライ不可な例外をスローしていました。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>なお改修の結果、バッチアプリケーション以外にも影響が有り得ます。影響内容と対応については後述の既存アプリケーションへの影響をご確認ください。</t>
+    <rPh sb="2" eb="4">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>上記の問題を解消するために以下2点の変更を行っています。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>コネクションクローズ時に発生した例外で業務処理の例外が握りつぶされてしまうことが抑止されます。</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ニギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨクシ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※今までは業務処理で例外が発生した後にコネクションのクローズ時にも例外が発生してしまうと、業務処理で発生した例外が隠蔽されコネクションクローズ時の例外がスローされていました。</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ギョウムショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>インペイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※DB接続の異常以外の原因（一意制約違反やSQLの不備など）で例外が発生した場合は、今までと変わらずリトライ不可な例外をスローします。</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>今までDB接続の異常が原因であってもリトライ不可と判定される場合がありましたが、適切にリトライされるようになります。</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※今まではロールバック時に例外が発生した場合のみ、DB接続の異常が原因であるか否かで正しくリトライ判定を行っていましたが、</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="16" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※改修前にスローされていたリトライ不可な例外と改修後にスローされるようになったリトライ可能な例外の差異は</t>
+    <rPh sb="1" eb="4">
+      <t>カイシュウマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カイシュウゴ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　リトライハンドラでハンドリングされるRetryableインターフェースを実装しているかどうかのみで、それ以外の挙動に差異はありません。</t>
+    <rPh sb="53" eb="55">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>※コネクションクローズ時の例外はスローされなくなります。</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・DBアクセス例外を想定したテストを行っている場合、これまでと例外の種類や挙動が変わるため、期待値の変更が必要になる場合があります。</t>
+    <rPh sb="7" eb="9">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・独自実装のハンドラにより、コネクションのクローズ時に発生した例外をハンドリングしている場合、独自実装を見直してください。</t>
+    <rPh sb="25" eb="26">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>これにより、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リトライによって処理が成功する可能性が高くなります。</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>これにより、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>障害調査が容易になります。</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検討した結果、リトライ判定の妥当性や障害調査の容易性を鑑み、挙動を見直すべきと判断しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ダトウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>変更点に挙げた通り、今回の変更が運用に与える影響は好ましいと考えられるため、基本的にはアプリケーション側で対応する必要はないと考えています。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>DBアクセス失敗時の例外ハンドリングについて、以下2点の修正を実施しました。
+1. DBアクセスで例外が発生した場合、原因がDB接続の異常であった場合は必ずリトライ可能な例外をスローする
+2. コネクションのクローズ時に例外が発生した場合、例外をスローせず、ログ出力に留める
+詳細は別紙「DBアクセス失敗時の例外ハンドリング」をご覧ください。</t>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -2664,7 +2522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2859,14 +2717,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -2874,36 +2724,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF006100"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2915,36 +2740,22 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF006100"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2963,54 +2774,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3178,428 +2943,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3712,14 +3057,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3921,144 +3260,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="23" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="23" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="24" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="28" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="28" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="27" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="30" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="27" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="29" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="32" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="33" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="33" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="34" xfId="39" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4104,136 +3305,39 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="28" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="27" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="28" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="30" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="32" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="30" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="28" xfId="38" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="39" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="11" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="41" xfId="39" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="32" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="38">
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="39" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -4271,7 +3375,6 @@
     <cellStyle name="標準 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="標準 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="標準 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="良い" xfId="38" builtinId="26"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -4828,201 +3931,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 右 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA73FAD4-BD0C-9ED5-2763-79505DC458A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="4686300"/>
-          <a:ext cx="457200" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B81C77-5D0A-4E98-B5DF-A4329ABB33EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="257175" y="3943350"/>
-          <a:ext cx="4810125" cy="1581150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F724C02-533C-46F8-A611-AAF393849298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5857875" y="3943350"/>
-          <a:ext cx="4810125" cy="1581150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5714,7 +4622,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5779,64 +4687,64 @@
       <c r="DU3" s="11"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="122" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="122" t="s">
+      <c r="N4" s="76" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="52" t="s">
         <v>86</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="123"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
@@ -5917,7 +4825,7 @@
         <v>116</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>125</v>
@@ -5987,41 +4895,41 @@
     <row r="10" spans="1:125" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="46"/>
-      <c r="C10" s="115">
+      <c r="C10" s="69">
         <f>C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="115" t="s">
+      <c r="H10" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="115" t="s">
+      <c r="L10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="114" t="s">
-        <v>273</v>
-      </c>
-      <c r="N10" s="115" t="s">
+      <c r="M10" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="69" t="s">
         <v>172</v>
       </c>
       <c r="O10" s="38"/>
@@ -6029,100 +4937,100 @@
     <row r="11" spans="1:125" s="12" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="46"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="116"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="N12" s="117"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="38"/>
     </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:125" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="53"/>
-      <c r="C13" s="115">
+      <c r="C13" s="69">
         <f>C10+1</f>
         <v>5</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="115" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="115" t="s">
+      <c r="G13" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="L13" s="115" t="s">
-        <v>274</v>
+      <c r="L13" s="69" t="s">
+        <v>215</v>
       </c>
       <c r="M13" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="N13" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="69" t="s">
         <v>195</v>
       </c>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="66"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="N14" s="117"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
@@ -6230,7 +5138,7 @@
         <v>142</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>141</v>
@@ -6247,8 +5155,8 @@
       <c r="L17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="113" t="s">
-        <v>272</v>
+      <c r="M17" s="67" t="s">
+        <v>199</v>
       </c>
       <c r="N17" s="25" t="s">
         <v>135</v>
@@ -6272,7 +5180,7 @@
         <v>149</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>152</v>
@@ -6356,7 +5264,7 @@
         <v>163</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>141</v>
@@ -6419,7 +5327,7 @@
         <v>105</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>108</v>
@@ -6461,7 +5369,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>139</v>
@@ -6545,7 +5453,7 @@
         <v>174</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>177</v>
@@ -6587,7 +5495,7 @@
         <v>176</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>178</v>
@@ -6693,7 +5601,7 @@
         <v>133</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>131</v>
@@ -6735,7 +5643,7 @@
         <v>134</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>136</v>
@@ -6752,8 +5660,8 @@
       <c r="L30" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="113" t="s">
-        <v>272</v>
+      <c r="M30" s="67" t="s">
+        <v>199</v>
       </c>
       <c r="N30" s="25" t="s">
         <v>135</v>
@@ -6777,7 +5685,7 @@
         <v>147</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>146</v>
@@ -6861,7 +5769,7 @@
         <v>185</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>162</v>
@@ -7152,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -7207,2114 +6115,309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D6717-C882-4D84-B95C-32C2DDD54B3B}">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="81" customWidth="1"/>
-    <col min="2" max="9" width="24.5" style="81" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="81"/>
+    <col min="1" max="1" width="3.375" style="84" customWidth="1"/>
+    <col min="2" max="9" width="24.5" style="84" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="81" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="81" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="83"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="83"/>
+      <c r="B3" s="85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="83"/>
+      <c r="B4" s="86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="83"/>
+      <c r="B5" s="87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="83"/>
+      <c r="B6" s="87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="83"/>
+      <c r="B7" s="86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="83"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="83"/>
+      <c r="B11" s="86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="83"/>
+      <c r="B12" s="86"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="83"/>
+      <c r="B13" s="86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="83"/>
+      <c r="B14" s="87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="83"/>
+      <c r="B15" s="87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="83"/>
+      <c r="B16" s="87"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="83"/>
+      <c r="B17" s="82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="83"/>
+      <c r="B19" s="82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="83"/>
+      <c r="B20" s="87"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="83"/>
+      <c r="B21" s="86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="83"/>
+      <c r="B22" s="87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="83"/>
+      <c r="B23" s="87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="83"/>
+      <c r="B24" s="86"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="83"/>
+      <c r="B25" s="82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="81" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="81" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="128" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="128" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="81" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="81" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="81" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="81" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="81" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="94"/>
-      <c r="B27" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="82" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="83"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="83"/>
+      <c r="B27" s="85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="83"/>
+      <c r="B28" s="86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="83"/>
+      <c r="B29" s="86" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="83"/>
+      <c r="B30" s="86"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="83"/>
+      <c r="B31" s="87" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="83"/>
+      <c r="B32" s="87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="83"/>
+      <c r="B33" s="88"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="83"/>
+      <c r="B34" s="91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="83"/>
+      <c r="B35" s="91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="83"/>
+      <c r="B36" s="91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="83"/>
+      <c r="B37" s="89"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="83"/>
+      <c r="B38" s="86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="83"/>
+      <c r="B39" s="86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="83"/>
+      <c r="B40" s="86"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="83"/>
+      <c r="B41" s="87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="83"/>
+      <c r="B42" s="90" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="83"/>
+      <c r="B43" s="90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="83"/>
+      <c r="B44" s="87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="83"/>
+      <c r="B45" s="90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="83"/>
+      <c r="B46" s="87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="83"/>
+      <c r="B47" s="90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="83"/>
+      <c r="B48" s="87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="83"/>
+      <c r="B49" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="89"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="90"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="89"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="77"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="90"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="77"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="77"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="77"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="77"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="77"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="90"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="90"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="77"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="77"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="90"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="77"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="77"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="93"/>
-    </row>
-    <row r="57" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="81" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="83" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="94"/>
-      <c r="B62" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="81" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-    </row>
-    <row r="66" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="73"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="75"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="74"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="75"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="77"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="75"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="75"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="75"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="75"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="75"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="75"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="75"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="75"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="74" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="83"/>
+      <c r="B50" s="86"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="75"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="75"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="75"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="77"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="75"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="75"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="75"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="77"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="75"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="75"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="77"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="75"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="75"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B92" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="75"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="75"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="75"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="75"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="70"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="77"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="75"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="75"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="75"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="70"/>
-      <c r="I100" s="77"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="75"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="75"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="77"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="75"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="75"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="69"/>
-      <c r="H106" s="69"/>
-      <c r="I106" s="75"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="75"/>
-      <c r="F107" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G107" s="69"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="75"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
-      <c r="I108" s="75"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="77"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="77"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="75"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="77"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="77"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B114" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="75"/>
-      <c r="F114" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="75"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B115" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="75"/>
-      <c r="F115" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="75"/>
-    </row>
-    <row r="116" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="79"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="80"/>
-      <c r="F116" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
-      <c r="I116" s="80"/>
-    </row>
-    <row r="117" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B118" s="81" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B119" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-    </row>
-    <row r="122" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="83" t="s">
-        <v>305</v>
-      </c>
-      <c r="C122" s="83"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="162" t="s">
-        <v>293</v>
-      </c>
-      <c r="C123" s="163"/>
-      <c r="D123" s="168" t="s">
-        <v>255</v>
-      </c>
-      <c r="E123" s="166" t="s">
-        <v>284</v>
-      </c>
-      <c r="F123" s="164" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="160" t="s">
-        <v>230</v>
-      </c>
-      <c r="C124" s="161" t="s">
-        <v>231</v>
-      </c>
-      <c r="D124" s="169"/>
-      <c r="E124" s="167"/>
-      <c r="F124" s="165"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C125" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D125" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E125" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="F125" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C126" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D126" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E126" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F126" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B127" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D127" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E127" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F127" s="101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B128" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C128" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D128" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E128" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F128" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C129" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D129" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E129" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F129" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D130" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E130" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F130" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C131" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D131" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E131" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="F131" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D132" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E132" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F132" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C133" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D133" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E133" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F133" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B134" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C134" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D134" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E134" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F134" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B135" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C135" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E135" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F135" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B136" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="C136" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D136" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E136" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F136" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D137" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E137" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F137" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C138" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D138" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E138" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F138" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C139" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D139" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E139" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F139" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B140" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C140" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E140" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="F140" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C141" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D141" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E141" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F141" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B142" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C142" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D142" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="E142" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F142" s="98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B143" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D143" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="E143" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F143" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B144" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C144" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D144" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E144" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F144" s="99" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="C145" s="109" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="106" t="s">
-        <v>260</v>
-      </c>
-      <c r="E145" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="F145" s="100" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="94"/>
-      <c r="B148" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="C148" s="94"/>
-      <c r="D148" s="94"/>
-      <c r="E148" s="94"/>
-      <c r="F148" s="94"/>
-      <c r="G148" s="94"/>
-      <c r="H148" s="94"/>
-      <c r="I148" s="94"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B149" s="81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B151" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C151" s="82"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
-    </row>
-    <row r="152" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F152" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="C153" s="87"/>
-      <c r="D153" s="87"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="G153" s="87"/>
-      <c r="H153" s="87"/>
-      <c r="I153" s="88"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B154" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="C154" s="68"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="G154" s="68"/>
-      <c r="H154" s="68"/>
-      <c r="I154" s="90"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B155" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="90"/>
-      <c r="F155" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="G155" s="68"/>
-      <c r="H155" s="68"/>
-      <c r="I155" s="90"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B156" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="90"/>
-      <c r="F156" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G156" s="68"/>
-      <c r="H156" s="68"/>
-      <c r="I156" s="90"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B157" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="G157" s="68"/>
-      <c r="H157" s="68"/>
-      <c r="I157" s="90"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B158" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="90"/>
-      <c r="F158" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="G158" s="68"/>
-      <c r="H158" s="68"/>
-      <c r="I158" s="90"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B159" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="90"/>
-      <c r="F159" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="G159" s="68"/>
-      <c r="H159" s="68"/>
-      <c r="I159" s="90"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B160" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="90"/>
-      <c r="F160" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="90"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B161" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="C161" s="68"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="90"/>
-      <c r="F161" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="G161" s="68"/>
-      <c r="H161" s="68"/>
-      <c r="I161" s="90"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B162" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="C162" s="68"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="90"/>
-      <c r="F162" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="G162" s="68"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="90"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B163" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="90"/>
-      <c r="F163" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="90"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B164" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="C164" s="68"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="90"/>
-      <c r="F164" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" s="68"/>
-      <c r="H164" s="68"/>
-      <c r="I164" s="90"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B165" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="90"/>
-      <c r="F165" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="G165" s="68"/>
-      <c r="H165" s="68"/>
-      <c r="I165" s="90"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B166" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C166" s="68"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="90"/>
-      <c r="F166" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="G166" s="68"/>
-      <c r="H166" s="68"/>
-      <c r="I166" s="90"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B167" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C167" s="70"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="77"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B168" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="90"/>
-      <c r="F168" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G168" s="68"/>
-      <c r="H168" s="68"/>
-      <c r="I168" s="90"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B169" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="90"/>
-      <c r="F169" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G169" s="68"/>
-      <c r="H169" s="68"/>
-      <c r="I169" s="90"/>
-    </row>
-    <row r="170" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C170" s="92"/>
-      <c r="D170" s="92"/>
-      <c r="E170" s="93"/>
-      <c r="F170" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G170" s="92"/>
-      <c r="H170" s="92"/>
-      <c r="I170" s="93"/>
-    </row>
-    <row r="171" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B172" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C172" s="83"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B173" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="C173" s="83"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="83"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B174" s="83"/>
-      <c r="C174" s="83"/>
-      <c r="D174" s="83"/>
-      <c r="E174" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D123:D124"/>
-  </mergeCells>
   <phoneticPr fontId="11"/>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1" location="id6" xr:uid="{B3C0FEA4-0147-4E69-AE61-F8312DCE191A}"/>
+    <hyperlink ref="B43" r:id="rId2" location="database-connect" xr:uid="{E89BC2BA-F1AD-4512-A169-9D7834751610}"/>
+    <hyperlink ref="B45" r:id="rId3" location="database-change-exception" xr:uid="{824FDED7-DB5F-43F5-8C1D-1DC0B626CC61}"/>
+    <hyperlink ref="B47" r:id="rId4" location="database-connection-management-handler" xr:uid="{9700890B-B99C-4DB1-A840-082582EED0F6}"/>
+    <hyperlink ref="B49" r:id="rId5" location="database-new-transaction" xr:uid="{2D17336A-25A0-4092-B55C-83598528062F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AB6786-FE5F-49C4-A236-10C8B5321180}">
-  <dimension ref="B2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="145"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="159" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="138" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="154" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="155" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="156" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="150" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="135" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="136" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-    </row>
-    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="145"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="159" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" s="138" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="157" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="132"/>
-      <c r="C12" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="135" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="142" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="138" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" s="144" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="140" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B9:C10"/>
-  </mergeCells>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9323,7 +6426,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9397b6e5093f0ea3320ea4328e9622b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b83f8d8fade62e630f7e332b1b8b9037" ns2:_="" ns3:_="">
     <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
@@ -9540,24 +6643,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF9CC0D-EF13-4E87-8EE3-26008FE7B892}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9565,7 +6662,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7437B4A5-B05E-478D-8923-547CA0DFB87B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9582,4 +6679,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ja/releases/nablarch5u23-releasenote.xlsx
+++ b/ja/releases/nablarch5u23-releasenote.xlsx
@@ -1,57 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{4887760B-915A-430F-97AF-1EB38BFE5B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1001654-5C7A-4BB9-B72D-A733A02E1A6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B98287-A191-4EDD-99A0-CC5035B4DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u23" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
-    <sheet name="DBアクセス失敗時の例外ハンドリング" sheetId="9" r:id="rId4"/>
+    <sheet name="5u23" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId2"/>
+    <sheet name="DBアクセス失敗時の例外ハンドリング" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u23'!$A$5:$N$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u23'!$A$1:$N$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u23'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$A$1:$N$27</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$A$1:$M$27</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$C$6:$M$27</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$A$1:$N$27</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$E$1:$E$27</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$E$1:$E$27</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$A$1:$N$27</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$E$1:$E$27</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$E$1:$E$27</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$A$1:$N$27</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u23'!$C$6:$M$27</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u23'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u23'!$A$6:$N$27</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u23'!$A$1:$N$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u23'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -96,237 +43,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>リリース
@@ -334,14 +65,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -351,7 +82,7 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>-</t>
@@ -364,11 +95,11 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Example</t>
@@ -376,15 +107,15 @@
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -395,7 +126,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>システムへの
@@ -407,7 +138,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -423,34 +154,34 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Nablarch実装例集</t>
@@ -463,39 +194,39 @@
     <rPh sb="11" eb="12">
       <t>シュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>JIRA issue
 (※4)</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ログ出力</t>
     <rPh sb="2" eb="4">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RESTfulウェブサービス用のHTTPアクセスログハンドラを追加</t>
@@ -505,47 +236,47 @@
     <rPh sb="31" eb="33">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-fw-jaxrs 1.3.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>なし</t>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-524</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">RESTfulウェブサービスプロジェクト
 コンテナ用RESTfulウェブサービスプロジェクト
 </t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>HTTPアクセスログハンドラの変更</t>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-jaxrs 5u23
 nablarch-container-jaxrs 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RESTfulウェブサービス用の新しいHTTPアクセスログハンドラを使用するように変更しました。</t>
@@ -558,25 +289,25 @@
     <rPh sb="41" eb="43">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-example-web 5u23
 nablarch-example-rest 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ウェブ
 RESTfulウェブサービス</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■Nablarch 5u23 リリースノート</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>5u22からの変更点を記載しています。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>実装例集</t>
@@ -586,14 +317,14 @@
     <rPh sb="3" eb="4">
       <t>シュウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Logbookを用いたリクエスト/レスポンスログ出力の実装例を追加</t>
@@ -609,11 +340,11 @@
     <rPh sb="31" eb="33">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>入力値のチェック</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付バリデーションを追加</t>
@@ -623,11 +354,11 @@
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-526</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>外部のREST APIへリクエスト送信した際、Logbookを用いてアクセスログを出力する実装例を追加しました。</t>
@@ -652,11 +383,11 @@
     <rPh sb="49" eb="51">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-biz-sample-all 2.1.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/examples/13/index.html</t>
@@ -666,7 +397,7 @@
   </si>
   <si>
     <t>NAB-522</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>列挙値バリデーションを追加</t>
@@ -676,15 +407,15 @@
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-523</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-core-validation-ee 1.2.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Bean Validation機能に、入力値が、指定した列挙型のいずれかの値に一致することを検証するアノテーションを追加しました。</t>
@@ -715,15 +446,15 @@
     <rPh sb="55" eb="56">
       <t>アタラ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/publishedApi/nablarch-all/publishedApiDoc/programmer/nablarch/core/validation/ee/DateFormat.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/publishedApi/nablarch-all/publishedApiDoc/programmer/nablarch/core/validation/ee/EnumElement.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>HTTPアクセスログ出力機能に、RESTfulウェブサービスのリクエスト/レスポンスボディを出力可能にする新しいHTTPアクセスログハンドラを追加しました
@@ -758,22 +489,22 @@
     <rPh sb="139" eb="141">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>リクエスト単体テスト</t>
     <rPh sb="5" eb="7">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.12.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-531</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RESTfulウェブサービスのテストでコンポーネント設定を上書きできるように変更</t>
@@ -786,7 +517,7 @@
     <rPh sb="38" eb="40">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WebアプリケーションのテストでHTTPメソッドおよびクエリパラメータを設定できるように変更</t>
@@ -796,19 +527,19 @@
     <rPh sb="44" eb="46">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-532</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-testing 1.5.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ウェブ</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>テスト時のHTTPメソッド指定処理の変更</t>
@@ -821,11 +552,11 @@
     <rPh sb="18" eb="20">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-example-web 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Webアプリケーションプロジェクト
@@ -833,12 +564,12 @@
     <rPh sb="22" eb="23">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-web 5u23
 nablarch-container-web 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>テスト時のHTTPメソッド指定の追加</t>
@@ -851,27 +582,27 @@
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>取引単体テスト</t>
     <rPh sb="0" eb="4">
       <t>トリヒキタンタイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/rest.html#cookie</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-530</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.12.0
 nablarch-testing-rest 1.2.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RESTfulウェブサービスのテストで複数のクッキーを引き継げるように変更</t>
@@ -887,7 +618,7 @@
     <rPh sb="35" eb="37">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>バッチプロジェクト
@@ -895,7 +626,7 @@
     <rPh sb="14" eb="15">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>メール送信で利用するステータス更新用のトランザクションマネージャーをデフォルト設定から読み込むよう変更</t>
@@ -908,36 +639,36 @@
     <rPh sb="49" eb="51">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-534</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/libraries/mail.html#mail-send</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-batch 5u23
 nablarch-container-batch 5u23
 nablarch-main-default-configuration 1.5.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CSRFトークン検証ハンドラの追加</t>
     <rPh sb="15" eb="17">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/web/csrf_token_verification_handler.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-535</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CSRFトークン検証ハンドラの設定漏れを防ぐため、ブランクプロジェクト作成時点でCSRFトークン検証ハンドラが有効となるよう変更しました。</t>
@@ -968,7 +699,7 @@
     <rPh sb="62" eb="64">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>単体テストで使用するハンドラの独自実装を廃止</t>
@@ -987,7 +718,7 @@
     <rPh sb="20" eb="22">
       <t>ハイシ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>単体テストで、CSRFトークン検証ハンドラを無効化するため、何も処理しないハンドラを独自実装していました。テスティングフレームワークでも何も処理しないハンドラを提供しているため、独自実装クラスを削除しテスティングフレームワークのクラスを使用するように変更しました。</t>
@@ -1018,7 +749,7 @@
     <rPh sb="125" eb="127">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>不要なディレクトリが作成されないように変更</t>
@@ -1031,7 +762,7 @@
     <rPh sb="19" eb="21">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>リクエスト単体テスト実施時、http_dumpという名前の不要なディレクトリが作成されていたため作成されないように対応しました。</t>
@@ -1059,11 +790,11 @@
     <rPh sb="57" eb="59">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-536</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-testing 1.5.0</t>
@@ -1085,19 +816,19 @@
     <rPh sb="19" eb="21">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/blank_project/MavenModuleStructures/index.html#pj-web</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-537</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Nablarch開発ツール</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>IntelliJ IDEA用Inspectionプロファイルの提供を廃止</t>
@@ -1110,29 +841,29 @@
     <rPh sb="34" eb="36">
       <t>ハイシ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-document 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/development_tools/java_static_analysis/index.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-538</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Java静的チェック用として、Nablarch開発チームで使用しているIntelliJ IDEAのInspectionプロファイルを提供していました。
 しかし、現在のIntelliJ IDEAではデフォルト設定のままで一般的に注意すべき点が十分検出されていること、使用しているIntelliJ IDEAのバージョンによっては設定に差異が発生する可能性があること、といった点からプロファイルの提供を廃止しました。
 デフォルトのプロファイルがプロジェクトにマッチしない場合は、デフォルトのプロファイルをベースにカスタマイズしてください。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-540</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ウェブ
@@ -1152,7 +883,7 @@
     <rPh sb="73" eb="75">
       <t>ジュシン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付バリデーションの変更</t>
@@ -1162,7 +893,7 @@
     <rPh sb="10" eb="12">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ウェブ
@@ -1172,7 +903,7 @@
     <rPh sb="46" eb="48">
       <t>ジュシン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>列挙値バリデーションの変更</t>
@@ -1182,7 +913,7 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-example-web 5u23
@@ -1190,22 +921,22 @@
 nablarch-example-rest 5u23
 nablarch-example-http-messaging 5u23
 nablarch-example-mom-sync-receive 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-example-web 5u23
 nablarch-example-thymeleaf-web 5u23
 nablarch-example-rest 5u23
 nablarch-example-http-messaging 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/web_interceptor/InjectForm.html#bean-validation</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/rest/jaxrs_bean_validation_handler.html#bean-validation</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Bean Validationによる入力値のチェック機能で、グループを指定できるように変更しました。主要な機能追加は以下の3つです。
@@ -1245,13 +976,13 @@
     <rPh sb="135" eb="136">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-core-validation-ee 1.2.0
 nablarch-fw-web 1.12.0
 nablarch-fw-jaxrs 1.3.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Bean Validationのグループ機能に対応</t>
@@ -1261,14 +992,14 @@
     <rPh sb="23" eb="25">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Form/Entity単体テスト</t>
     <rPh sb="11" eb="13">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Form/Entityの単体テストをBeanValidationに対応</t>
@@ -1278,15 +1009,15 @@
     <rPh sb="33" eb="35">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-542</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/01_entityUnitTestWithBeanValidation.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ウェブ
@@ -1306,7 +1037,7 @@
     <rPh sb="70" eb="72">
       <t>ジュシン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Formの単体テストの追加</t>
@@ -1316,7 +1047,7 @@
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-example-web 5u23
@@ -1324,32 +1055,32 @@
 nablarch-example-batch 5u23
 nablarch-example-http-messaging 5u23
 nablarch-example-mom-sync-receive 5u23</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベースアクセス</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>DBアクセス失敗時の例外ハンドリングを改善</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>nablarch-core-jdbc 1.7.0
 nablarch-common-jdbc 1.2.0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>NAB-544</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/common/database_connection_management_handler.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u23に書き換える</t>
@@ -1362,26 +1093,26 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/handlers/standalone/retry_handler.html</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/index.html#request-test-user-info</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u23/doc/application_framework/application_framework/libraries/validation/bean_validation.html#bean-validation-use-groups</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>疎通確認用のテストで、明示的にHTTPメソッドを指定するよう変更しました。</t>
     <rPh sb="30" eb="32">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>メール送信バッチを実行する際はステータス更新用のトランザクションマネージャーのコンポーネント定義が必須です。しかし、今まではNablarchが提供するデフォルト設定に上記のコンポーネント定義は存在せず、利用者が個別に設定する必要がありました。
@@ -1452,32 +1183,32 @@
     <rPh sb="218" eb="220">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>テスティングフレームワークを使用したリクエスト単体テストでHTTPメソッドを指定する際、これまではexampleで独自処理を実装していましたが、No.19の機能を使用するよう変更しました。</t>
     <rPh sb="87" eb="89">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付バリデーション処理で、これまではexampleで独自処理を実装していましたが、No.2の機能を使用するよう変更しました。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>列挙値バリデーション処理で、これまではexampleで独自処理を実装していましたが、No.3の機能を使用するよう変更しました。</t>
     <rPh sb="56" eb="58">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RESTfulウェブサービスの自動テストでも、ウェブアプリケーション同様、unit-test.xmlでコンポーネント設定を上書きできるよう変更しました。</t>
     <rPh sb="69" eb="75">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Webアプリケーションの自動テストにおいて、これまではリクエスト時のHTTPメソッドがPOSTに固定されていました。
@@ -1513,7 +1244,7 @@
     <rPh sb="122" eb="124">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RESTfulウェブサービスの自動テストにおいて、これまではレスポンスヘッダに設定されたSet-Cookieヘッダのうち取得可能なクッキーは1件のみでした。
@@ -1585,7 +1316,7 @@
     <rPh sb="281" eb="283">
       <t>ニンイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No.1の新しいHTTPアクセスログハンドラを使用するように変更しました。
@@ -1608,14 +1339,14 @@
     <rPh sb="86" eb="88">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Bean Validationを使ったForm/Entityの精査をテスティングフレームワークで自動テストできるようになりました。</t>
     <rPh sb="48" eb="50">
       <t>ジドウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Bean Validation機能に、入力値が日付であることを検証するアノテーションを追加しました。
@@ -1711,7 +1442,7 @@
     <rPh sb="227" eb="229">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ブランクプロジェクトには、疎通確認用とエラーページサンプルとしてJSPファイルが含まれます。このJSPファイルの直接起動を防ぐため、またブランクプロジェクトを参考にしてWEB-INF外にJSPファイルを配置してしまうことを防ぐため、JSPファイルをWEB-INF配下に移動しました。</t>
@@ -1745,18 +1476,18 @@
     <rPh sb="134" eb="136">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>以上</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■DBアクセス失敗時の例外ハンドリングの変更点</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>データベースアクセスを行うアプリケーションに影響があります。ただし基本的に対応の必要はありません。
@@ -1779,7 +1510,7 @@
     <rPh sb="78" eb="79">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・リトライハンドラを設定しているバッチアプリケーションにおいて、ロールバック時に例外が発生した場合とコネクションクローズ時に例外が発生した場合で挙動が異なり</t>
@@ -1813,7 +1544,7 @@
     <rPh sb="75" eb="76">
       <t>コト</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>　ロールバック時に例外が発生した場合はリトライされるが、コネクションクローズ時に例外が発生した場合はリトライされない。</t>
@@ -1841,14 +1572,14 @@
     <rPh sb="47" eb="49">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>◆変更点</t>
     <rPh sb="1" eb="4">
       <t>ヘンコウテン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>2. コネクションのクローズ時に例外が発生した場合、例外をスローせず、ログ出力に留める</t>
@@ -1873,7 +1604,7 @@
     <rPh sb="40" eb="41">
       <t>トド</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>◆改修を行った経緯</t>
@@ -1886,7 +1617,7 @@
     <rPh sb="7" eb="9">
       <t>ケイイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>利用者から以下の事象について問い合わせがありました。</t>
@@ -1905,7 +1636,7 @@
     <rPh sb="16" eb="17">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1. DBアクセスで例外が発生した場合、原因がDB接続の異常であった場合は必ずリトライ可能な例外をスローする</t>
@@ -1939,7 +1670,7 @@
     <rPh sb="46" eb="48">
       <t>レイガイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>◆既存アプリケーションへの影響</t>
@@ -1949,7 +1680,7 @@
     <rPh sb="13" eb="15">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ただし、1点目では発生する例外の種類が、2点目では例外がスローされなくなるという変更が発生していますので、以下の場合には対応が必要となります。</t>
@@ -1989,43 +1720,43 @@
     <rPh sb="63" eb="65">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベース接続管理ハンドラーデータベースの接続先を設定する</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)-データベースに対する接続設定</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)- データベースアクセス時の例外クラスを切り替える</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・ConnectionFactory</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・DbAccessExceptionFactory</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・SimpleDbTransactionExecutor</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・DbConnectionManagementHandler</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベース接続管理ハンドラ</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)-現在のトランザクションとは異なるトランザクションでSQLを実行する</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>なお本改修はNablarchの提供する以下の標準クラスを使用している場合に影響があります。これらのクラスを独自実装に差し替えている場合は影響はありません。</t>
@@ -2050,18 +1781,18 @@
     <rPh sb="37" eb="39">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>各クラスの詳細はリンク先の解説書をご参照ください。</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>　それ以外の処理(コネクションの初期化処理やコミット処理)では原因に関わらずリトライ不可な例外をスローしていました。</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>なお改修の結果、バッチアプリケーション以外にも影響が有り得ます。影響内容と対応については後述の既存アプリケーションへの影響をご確認ください。</t>
@@ -2104,7 +1835,7 @@
     <rPh sb="63" eb="65">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>上記の問題を解消するために以下2点の変更を行っています。</t>
@@ -2129,7 +1860,7 @@
     <rPh sb="21" eb="22">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コネクションクローズ時に発生した例外で業務処理の例外が握りつぶされてしまうことが抑止されます。</t>
@@ -2157,7 +1888,7 @@
     <rPh sb="40" eb="42">
       <t>ヨクシ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※今までは業務処理で例外が発生した後にコネクションのクローズ時にも例外が発生してしまうと、業務処理で発生した例外が隠蔽されコネクションクローズ時の例外がスローされていました。</t>
@@ -2203,7 +1934,7 @@
     <rPh sb="73" eb="75">
       <t>レイガイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※DB接続の異常以外の原因（一意制約違反やSQLの不備など）で例外が発生した場合は、今までと変わらずリトライ不可な例外をスローします。</t>
@@ -2246,7 +1977,7 @@
     <rPh sb="57" eb="59">
       <t>レイガイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>今までDB接続の異常が原因であってもリトライ不可と判定される場合がありましたが、適切にリトライされるようになります。</t>
@@ -2262,7 +1993,7 @@
     <rPh sb="30" eb="32">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※今まではロールバック時に例外が発生した場合のみ、DB接続の異常が原因であるか否かで正しくリトライ判定を行っていましたが、</t>
@@ -2299,7 +2030,7 @@
     <rPh sb="52" eb="53">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※改修前にスローされていたリトライ不可な例外と改修後にスローされるようになったリトライ可能な例外の差異は</t>
@@ -2324,7 +2055,7 @@
     <rPh sb="49" eb="51">
       <t>サイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>　リトライハンドラでハンドリングされるRetryableインターフェースを実装しているかどうかのみで、それ以外の挙動に差異はありません。</t>
@@ -2337,7 +2068,7 @@
     <rPh sb="59" eb="61">
       <t>サイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※コネクションクローズ時の例外はスローされなくなります。</t>
@@ -2347,7 +2078,7 @@
     <rPh sb="13" eb="15">
       <t>レイガイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・DBアクセス例外を想定したテストを行っている場合、これまでと例外の種類や挙動が変わるため、期待値の変更が必要になる場合があります。</t>
@@ -2369,7 +2100,7 @@
     <rPh sb="40" eb="41">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・独自実装のハンドラにより、コネクションのクローズ時に発生した例外をハンドリングしている場合、独自実装を見直してください。</t>
@@ -2385,7 +2116,7 @@
     <rPh sb="44" eb="46">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2402,7 +2133,7 @@
       </rPr>
       <t>リトライによって処理が成功する可能性が高くなります。</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2419,7 +2150,7 @@
       </rPr>
       <t>障害調査が容易になります。</t>
     </r>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>検討した結果、リトライ判定の妥当性や障害調査の容易性を鑑み、挙動を見直すべきと判断しました。</t>
@@ -2459,7 +2190,7 @@
     <rPh sb="39" eb="41">
       <t>ハンダン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更点に挙げた通り、今回の変更が運用に与える影響は好ましいと考えられるため、基本的にはアプリケーション側で対応する必要はないと考えています。</t>
@@ -2496,7 +2227,7 @@
     <rPh sb="53" eb="54">
       <t>カンガ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>DBアクセス失敗時の例外ハンドリングについて、以下2点の修正を実施しました。
@@ -2515,35 +2246,19 @@
     <rPh sb="138" eb="140">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2948,7 +2663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -2960,7 +2675,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,234 +2763,273 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="37" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="37" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3286,54 +3040,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -4251,369 +3957,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -4628,9 +3971,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="31" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="31" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4643,1251 +3986,1251 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:125" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:125" s="9" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="AO3" s="10"/>
-      <c r="DU3" s="11"/>
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="A4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="76" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="83"/>
+      <c r="K4" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:125" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:125" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="25">
+      <c r="D7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="25">
+      <c r="D8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="22">
         <f t="shared" ref="C9:C20" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:125" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="69">
+      <c r="D9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="76">
         <f>C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="I10" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="N10" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:125" s="12" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="69">
+      <c r="G10" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="84"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="77"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="76">
         <f>C10+1</f>
         <v>5</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="L13" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="25">
+      <c r="D13" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="N14" s="77"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22">
         <f>C13+1</f>
         <v>6</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="25" t="s">
+      <c r="D15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:125" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="25">
+      <c r="N15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="22">
         <f>C15+1</f>
         <v>7</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="25">
+      <c r="D16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="25" t="s">
+      <c r="D17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="25">
+      <c r="G17" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="25">
+      <c r="D18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="25">
+      <c r="D19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="D20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="22">
         <f>C20+1</f>
         <v>12</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="25">
+      <c r="D22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="22">
         <f>C22+1</f>
         <v>13</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="25" t="s">
+      <c r="D23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="25">
+      <c r="H23" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="22">
         <f>C23+1</f>
         <v>14</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="25" t="s">
+      <c r="D24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="25">
+      <c r="G24" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="22">
         <f t="shared" ref="C25:C26" si="1">C24+1</f>
         <v>15</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="25">
+      <c r="D25" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" s="38"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="25">
+      <c r="D26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="22">
         <f>C26+1</f>
         <v>17</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="25" t="str">
+      <c r="D27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="22" t="str">
         <f>"Formの精査のテストを、No." &amp; C33 &amp; "の機能を使用して実装しました。"</f>
         <v>Formの精査のテストを、No.22の機能を使用して実装しました。</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="O27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="25">
+      <c r="H27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A28" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="22">
         <f>C27+1</f>
         <v>18</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="O29" s="38"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="25">
+      <c r="D29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="22">
         <f>C29+1</f>
         <v>19</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M30" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="O30" s="38"/>
-    </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="25">
+      <c r="D30" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="22">
         <f>C30+1</f>
         <v>20</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M31" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="O31" s="38"/>
-    </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="25">
+      <c r="D31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="22">
         <f t="shared" ref="C32:C33" si="2">C31+1</f>
         <v>21</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M32" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="O32" s="38"/>
-    </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="25">
+      <c r="D32" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="O33" s="38"/>
-    </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A34" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="38"/>
-    </row>
-    <row r="35" spans="1:15" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="25">
+      <c r="D33" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A34" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22">
         <f>C33+1</f>
         <v>23</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M35" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="O35" s="38"/>
+      <c r="D35" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="35"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
@@ -5896,7 +5239,7 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="59"/>
+      <c r="B40" s="56"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
@@ -5911,6 +5254,24 @@
     <sortCondition ref="E7:E14"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
@@ -5927,26 +5288,8 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="G21">
     <cfRule type="expression" dxfId="4" priority="10">
       <formula>#REF!="完了"</formula>
@@ -6003,9 +5346,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -6014,97 +5357,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
+      <c r="A1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -6113,298 +5456,299 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D6717-C882-4D84-B95C-32C2DDD54B3B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="84" customWidth="1"/>
-    <col min="2" max="9" width="24.5" style="84" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="84"/>
+    <col min="1" max="1" width="3.375" style="68" customWidth="1"/>
+    <col min="2" max="9" width="24.5" style="68" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
-        <v>214</v>
+      <c r="A1" s="67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
+      <c r="A2" s="67"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
-      <c r="B3" s="85" t="s">
-        <v>220</v>
+      <c r="A3" s="67"/>
+      <c r="B3" s="69" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
-      <c r="B4" s="86" t="s">
-        <v>221</v>
+      <c r="A4" s="67"/>
+      <c r="B4" s="70" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="87" t="s">
-        <v>216</v>
+      <c r="A5" s="67"/>
+      <c r="B5" s="71" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="87" t="s">
-        <v>217</v>
+      <c r="A6" s="67"/>
+      <c r="B6" s="71" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="86" t="s">
-        <v>251</v>
+      <c r="A7" s="67"/>
+      <c r="B7" s="70" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="86" t="s">
-        <v>237</v>
+      <c r="A8" s="67"/>
+      <c r="B8" s="70" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
+      <c r="A9" s="67"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="85" t="s">
-        <v>218</v>
+      <c r="A10" s="67"/>
+      <c r="B10" s="69" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
-      <c r="B11" s="86" t="s">
-        <v>238</v>
+      <c r="A11" s="67"/>
+      <c r="B11" s="70" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="83"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="70"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
-      <c r="B13" s="86" t="s">
-        <v>222</v>
+      <c r="A13" s="67"/>
+      <c r="B13" s="70" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="83"/>
-      <c r="B14" s="87" t="s">
-        <v>242</v>
+      <c r="A14" s="67"/>
+      <c r="B14" s="71" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="83"/>
-      <c r="B15" s="87" t="s">
-        <v>249</v>
+      <c r="A15" s="67"/>
+      <c r="B15" s="71" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="83"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="71"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="83"/>
-      <c r="B17" s="82" t="s">
-        <v>243</v>
+      <c r="A17" s="67"/>
+      <c r="B17" s="66" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82" t="s">
-        <v>236</v>
+      <c r="A18" s="67"/>
+      <c r="B18" s="66" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82" t="s">
-        <v>241</v>
+      <c r="A19" s="67"/>
+      <c r="B19" s="66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="83"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="71"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86" t="s">
-        <v>219</v>
+      <c r="A21" s="67"/>
+      <c r="B21" s="70" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="83"/>
-      <c r="B22" s="87" t="s">
-        <v>239</v>
+      <c r="A22" s="67"/>
+      <c r="B22" s="71" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="83"/>
-      <c r="B23" s="87" t="s">
-        <v>250</v>
+      <c r="A23" s="67"/>
+      <c r="B23" s="71" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="70"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="83"/>
-      <c r="B25" s="82" t="s">
-        <v>240</v>
+      <c r="A25" s="67"/>
+      <c r="B25" s="66" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="83"/>
+      <c r="A26" s="67"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="83"/>
-      <c r="B27" s="85" t="s">
-        <v>223</v>
+      <c r="A27" s="67"/>
+      <c r="B27" s="69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="83"/>
-      <c r="B28" s="86" t="s">
-        <v>252</v>
+      <c r="A28" s="67"/>
+      <c r="B28" s="70" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="83"/>
-      <c r="B29" s="86" t="s">
-        <v>224</v>
+      <c r="A29" s="67"/>
+      <c r="B29" s="70" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="83"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="70"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="83"/>
-      <c r="B31" s="87" t="s">
-        <v>247</v>
+      <c r="A31" s="67"/>
+      <c r="B31" s="71" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="83"/>
-      <c r="B32" s="87" t="s">
-        <v>248</v>
+      <c r="A32" s="67"/>
+      <c r="B32" s="71" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="83"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="72"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="83"/>
-      <c r="B34" s="91" t="s">
-        <v>244</v>
+      <c r="A34" s="67"/>
+      <c r="B34" s="75" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="83"/>
-      <c r="B35" s="91" t="s">
-        <v>245</v>
+      <c r="A35" s="67"/>
+      <c r="B35" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="83"/>
-      <c r="B36" s="91" t="s">
-        <v>246</v>
+      <c r="A36" s="67"/>
+      <c r="B36" s="75" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="83"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="73"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="83"/>
-      <c r="B38" s="86" t="s">
-        <v>234</v>
+      <c r="A38" s="67"/>
+      <c r="B38" s="70" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="83"/>
-      <c r="B39" s="86" t="s">
-        <v>235</v>
+      <c r="A39" s="67"/>
+      <c r="B39" s="70" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="83"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="70"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="83"/>
-      <c r="B41" s="87" t="s">
-        <v>228</v>
+      <c r="A41" s="67"/>
+      <c r="B41" s="71" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="83"/>
-      <c r="B42" s="90" t="s">
-        <v>225</v>
+      <c r="A42" s="67"/>
+      <c r="B42" s="74" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="83"/>
-      <c r="B43" s="90" t="s">
-        <v>226</v>
+      <c r="A43" s="67"/>
+      <c r="B43" s="74" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="87" t="s">
-        <v>229</v>
+      <c r="A44" s="67"/>
+      <c r="B44" s="71" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="83"/>
-      <c r="B45" s="90" t="s">
-        <v>227</v>
+      <c r="A45" s="67"/>
+      <c r="B45" s="74" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="83"/>
-      <c r="B46" s="87" t="s">
-        <v>231</v>
+      <c r="A46" s="67"/>
+      <c r="B46" s="71" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="83"/>
-      <c r="B47" s="90" t="s">
-        <v>232</v>
+      <c r="A47" s="67"/>
+      <c r="B47" s="74" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="83"/>
-      <c r="B48" s="87" t="s">
-        <v>230</v>
+      <c r="A48" s="67"/>
+      <c r="B48" s="71" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="83"/>
-      <c r="B49" s="90" t="s">
-        <v>233</v>
+      <c r="A49" s="67"/>
+      <c r="B49" s="74" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="83"/>
-      <c r="B50" s="86"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="70"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="84" t="s">
-        <v>213</v>
+      <c r="A51" s="68" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="9"/>
   <hyperlinks>
     <hyperlink ref="B42" r:id="rId1" location="id6" xr:uid="{B3C0FEA4-0147-4E69-AE61-F8312DCE191A}"/>
     <hyperlink ref="B43" r:id="rId2" location="database-connect" xr:uid="{E89BC2BA-F1AD-4512-A169-9D7834751610}"/>
@@ -6415,285 +5759,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9397b6e5093f0ea3320ea4328e9622b7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b83f8d8fade62e630f7e332b1b8b9037" ns2:_="" ns3:_="">
-    <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <xsd:import namespace="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d008ebc-df4f-45f1-825a-8a8202e958a5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e33717ea-bcde-468e-bdb9-e6e0ac669728" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="86b2f916-4c25-4caf-b602-cb3f88f7f404" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4139ddf4-debf-4f09-adfc-94c74b9ded59}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="86b2f916-4c25-4caf-b602-cb3f88f7f404">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="86b2f916-4c25-4caf-b602-cb3f88f7f404" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d008ebc-df4f-45f1-825a-8a8202e958a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF9CC0D-EF13-4E87-8EE3-26008FE7B892}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7437B4A5-B05E-478D-8923-547CA0DFB87B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C264D710-DF10-4E11-B6C6-AA51ACFB41F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>